--- a/src/test/resources/testData/data.xlsx
+++ b/src/test/resources/testData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viru\Desktop\FinalProject\workrestapi\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE4481-6861-4716-900F-40429041FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35120D78-859A-4953-A9D6-7D0FD5DA112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>programDescription</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>InvalidStudentid</t>
+  </si>
+  <si>
+    <t>Invalidbatchid</t>
+  </si>
+  <si>
+    <t>InvalidAssignmentid</t>
+  </si>
+  <si>
+    <t>U0000</t>
   </si>
 </sst>
 </file>
@@ -538,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C02A08-20A8-40A2-A112-CA41F852033D}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +646,17 @@
       <c r="AC1" t="s">
         <v>26</v>
       </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -722,6 +743,15 @@
       </c>
       <c r="AC2" t="s">
         <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
